--- a/data/raw/election/voters-age-sex-education/2023/Sivas.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Sivas.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-voters-age-sex-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\PycharmProjects\Git Folder\tartan-analytics\data\raw\election\voters-age-sex-education\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="46">
   <si>
     <t>Sivas</t>
   </si>
@@ -151,6 +152,12 @@
   </si>
   <si>
     <t>Zara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -684,7 +691,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -703,6 +710,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1032,10 +1048,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N446"/>
+  <dimension ref="A1:N448"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="J108" sqref="F108:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,52 +1066,52 @@
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
+      <c r="A5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2101,8 +2117,8 @@
       <c r="D30" s="5">
         <v>374</v>
       </c>
-      <c r="E30" s="5">
-        <v>1.5880000000000001</v>
+      <c r="E30" s="7">
+        <v>1588</v>
       </c>
       <c r="F30" s="5">
         <v>286</v>
@@ -2125,15 +2141,15 @@
       <c r="L30" s="5">
         <v>38</v>
       </c>
-      <c r="M30" s="5">
-        <v>4.1239999999999997</v>
+      <c r="M30" s="7">
+        <v>4124</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3139,17 +3155,17 @@
       <c r="D56" s="5">
         <v>311</v>
       </c>
-      <c r="E56" s="5">
-        <v>1.5109999999999999</v>
+      <c r="E56" s="7">
+        <v>1511</v>
       </c>
       <c r="F56" s="5">
         <v>660</v>
       </c>
-      <c r="G56" s="5">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>1.6459999999999999</v>
+      <c r="G56" s="7">
+        <v>1140</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1646</v>
       </c>
       <c r="I56" s="5">
         <v>680</v>
@@ -3163,15 +3179,15 @@
       <c r="L56" s="5">
         <v>74</v>
       </c>
-      <c r="M56" s="5">
-        <v>6.4240000000000004</v>
+      <c r="M56" s="7">
+        <v>6424</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4162,8 +4178,8 @@
       <c r="L81" s="4">
         <v>18</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.0509999999999999</v>
+      <c r="M81" s="7">
+        <v>1051</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4177,20 +4193,20 @@
       <c r="D82" s="5">
         <v>724</v>
       </c>
-      <c r="E82" s="5">
-        <v>4.0880000000000001</v>
+      <c r="E82" s="7">
+        <v>4088</v>
       </c>
       <c r="F82" s="5">
         <v>776</v>
       </c>
-      <c r="G82" s="5">
-        <v>1.595</v>
-      </c>
-      <c r="H82" s="5">
-        <v>3.2229999999999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>1.869</v>
+      <c r="G82" s="7">
+        <v>1595</v>
+      </c>
+      <c r="H82" s="7">
+        <v>3223</v>
+      </c>
+      <c r="I82" s="7">
+        <v>1869</v>
       </c>
       <c r="J82" s="5">
         <v>156</v>
@@ -4201,15 +4217,15 @@
       <c r="L82" s="5">
         <v>123</v>
       </c>
-      <c r="M82" s="5">
-        <v>13.282999999999999</v>
+      <c r="M82" s="7">
+        <v>13283</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="11"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4234,7 +4250,7 @@
       <c r="J83" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -4275,8 +4291,8 @@
       <c r="J84" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K84" s="4" t="s">
-        <v>15</v>
+      <c r="K84" s="4">
+        <v>0</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>15</v>
@@ -4314,8 +4330,8 @@
       <c r="J85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>15</v>
+      <c r="K85" s="4">
+        <v>0</v>
       </c>
       <c r="L85" s="4">
         <v>1</v>
@@ -4355,8 +4371,8 @@
       <c r="J86" s="4">
         <v>1</v>
       </c>
-      <c r="K86" s="4" t="s">
-        <v>15</v>
+      <c r="K86" s="4">
+        <v>0</v>
       </c>
       <c r="L86" s="4" t="s">
         <v>15</v>
@@ -4394,8 +4410,8 @@
       <c r="J87" s="4">
         <v>3</v>
       </c>
-      <c r="K87" s="4" t="s">
-        <v>15</v>
+      <c r="K87" s="4">
+        <v>0</v>
       </c>
       <c r="L87" s="4" t="s">
         <v>15</v>
@@ -4435,8 +4451,8 @@
       <c r="J88" s="4">
         <v>5</v>
       </c>
-      <c r="K88" s="4" t="s">
-        <v>15</v>
+      <c r="K88" s="4">
+        <v>0</v>
       </c>
       <c r="L88" s="4">
         <v>1</v>
@@ -4474,8 +4490,8 @@
       <c r="J89" s="4">
         <v>3</v>
       </c>
-      <c r="K89" s="4" t="s">
-        <v>15</v>
+      <c r="K89" s="4">
+        <v>0</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>15</v>
@@ -4515,8 +4531,8 @@
       <c r="J90" s="4">
         <v>2</v>
       </c>
-      <c r="K90" s="4" t="s">
-        <v>15</v>
+      <c r="K90" s="4">
+        <v>0</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>15</v>
@@ -4554,8 +4570,8 @@
       <c r="J91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K91" s="4" t="s">
-        <v>15</v>
+      <c r="K91" s="4">
+        <v>0</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>15</v>
@@ -4595,8 +4611,8 @@
       <c r="J92" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K92" s="4" t="s">
-        <v>15</v>
+      <c r="K92" s="4">
+        <v>0</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>15</v>
@@ -4634,8 +4650,8 @@
       <c r="J93" s="4">
         <v>3</v>
       </c>
-      <c r="K93" s="4" t="s">
-        <v>15</v>
+      <c r="K93" s="4">
+        <v>0</v>
       </c>
       <c r="L93" s="4" t="s">
         <v>15</v>
@@ -4675,8 +4691,8 @@
       <c r="J94" s="4">
         <v>1</v>
       </c>
-      <c r="K94" s="4" t="s">
-        <v>15</v>
+      <c r="K94" s="4">
+        <v>0</v>
       </c>
       <c r="L94" s="4" t="s">
         <v>15</v>
@@ -4714,8 +4730,8 @@
       <c r="J95" s="4">
         <v>1</v>
       </c>
-      <c r="K95" s="4" t="s">
-        <v>15</v>
+      <c r="K95" s="4">
+        <v>0</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>15</v>
@@ -4755,8 +4771,8 @@
       <c r="J96" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K96" s="4" t="s">
-        <v>15</v>
+      <c r="K96" s="4">
+        <v>0</v>
       </c>
       <c r="L96" s="4" t="s">
         <v>15</v>
@@ -4794,8 +4810,8 @@
       <c r="J97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K97" s="4" t="s">
-        <v>15</v>
+      <c r="K97" s="4">
+        <v>0</v>
       </c>
       <c r="L97" s="4">
         <v>1</v>
@@ -4835,8 +4851,8 @@
       <c r="J98" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K98" s="4" t="s">
-        <v>15</v>
+      <c r="K98" s="4">
+        <v>0</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>15</v>
@@ -4874,8 +4890,8 @@
       <c r="J99" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K99" s="4" t="s">
-        <v>15</v>
+      <c r="K99" s="4">
+        <v>0</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>15</v>
@@ -4915,8 +4931,8 @@
       <c r="J100" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K100" s="4" t="s">
-        <v>15</v>
+      <c r="K100" s="4">
+        <v>0</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>15</v>
@@ -4954,8 +4970,8 @@
       <c r="J101" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="4" t="s">
-        <v>15</v>
+      <c r="K101" s="4">
+        <v>0</v>
       </c>
       <c r="L101" s="4">
         <v>1</v>
@@ -4995,8 +5011,8 @@
       <c r="J102" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K102" s="4" t="s">
-        <v>15</v>
+      <c r="K102" s="4">
+        <v>0</v>
       </c>
       <c r="L102" s="4">
         <v>5</v>
@@ -5034,8 +5050,8 @@
       <c r="J103" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K103" s="4" t="s">
-        <v>15</v>
+      <c r="K103" s="4">
+        <v>0</v>
       </c>
       <c r="L103" s="4">
         <v>3</v>
@@ -5075,8 +5091,8 @@
       <c r="J104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K104" s="4" t="s">
-        <v>15</v>
+      <c r="K104" s="4">
+        <v>0</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>15</v>
@@ -5114,8 +5130,8 @@
       <c r="J105" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K105" s="4" t="s">
-        <v>15</v>
+      <c r="K105" s="4">
+        <v>0</v>
       </c>
       <c r="L105" s="4">
         <v>2</v>
@@ -5155,8 +5171,8 @@
       <c r="J106" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K106" s="4" t="s">
-        <v>15</v>
+      <c r="K106" s="4">
+        <v>0</v>
       </c>
       <c r="L106" s="4">
         <v>1</v>
@@ -5194,8 +5210,8 @@
       <c r="J107" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K107" s="4" t="s">
-        <v>15</v>
+      <c r="K107" s="4">
+        <v>0</v>
       </c>
       <c r="L107" s="4">
         <v>6</v>
@@ -5233,21 +5249,21 @@
       <c r="J108" s="5">
         <v>19</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="4">
         <v>0</v>
       </c>
       <c r="L108" s="5">
         <v>21</v>
       </c>
-      <c r="M108" s="5">
-        <v>2.3029999999999999</v>
+      <c r="M108" s="7">
+        <v>2303</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="11"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -6238,8 +6254,8 @@
       <c r="L133" s="4">
         <v>74</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.1339999999999999</v>
+      <c r="M133" s="7">
+        <v>1134</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6250,23 +6266,23 @@
       <c r="C134" s="5">
         <v>841</v>
       </c>
-      <c r="D134" s="5">
-        <v>1.0269999999999999</v>
-      </c>
-      <c r="E134" s="5">
-        <v>4.66</v>
-      </c>
-      <c r="F134" s="5">
-        <v>1.07</v>
-      </c>
-      <c r="G134" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="H134" s="5">
-        <v>4.25</v>
-      </c>
-      <c r="I134" s="5">
-        <v>1.86</v>
+      <c r="D134" s="7">
+        <v>1027</v>
+      </c>
+      <c r="E134" s="7">
+        <v>4660</v>
+      </c>
+      <c r="F134" s="7">
+        <v>1070</v>
+      </c>
+      <c r="G134" s="7">
+        <v>2480</v>
+      </c>
+      <c r="H134" s="7">
+        <v>4250</v>
+      </c>
+      <c r="I134" s="7">
+        <v>1860</v>
       </c>
       <c r="J134" s="5">
         <v>171</v>
@@ -6277,15 +6293,15 @@
       <c r="L134" s="5">
         <v>683</v>
       </c>
-      <c r="M134" s="5">
-        <v>17.055</v>
+      <c r="M134" s="7">
+        <v>17055</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="11"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -7291,8 +7307,8 @@
       <c r="D160" s="5">
         <v>310</v>
       </c>
-      <c r="E160" s="5">
-        <v>1.0680000000000001</v>
+      <c r="E160" s="7">
+        <v>1068</v>
       </c>
       <c r="F160" s="5">
         <v>194</v>
@@ -7315,15 +7331,15 @@
       <c r="L160" s="5">
         <v>37</v>
       </c>
-      <c r="M160" s="5">
-        <v>2.7360000000000002</v>
+      <c r="M160" s="7">
+        <v>2736</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="11"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -8329,20 +8345,20 @@
       <c r="D186" s="5">
         <v>760</v>
       </c>
-      <c r="E186" s="5">
-        <v>3.927</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.0389999999999999</v>
-      </c>
-      <c r="G186" s="5">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="H186" s="5">
-        <v>3.331</v>
-      </c>
-      <c r="I186" s="5">
-        <v>1.8640000000000001</v>
+      <c r="E186" s="7">
+        <v>3927</v>
+      </c>
+      <c r="F186" s="7">
+        <v>1039</v>
+      </c>
+      <c r="G186" s="7">
+        <v>1793</v>
+      </c>
+      <c r="H186" s="7">
+        <v>3331</v>
+      </c>
+      <c r="I186" s="7">
+        <v>1864</v>
       </c>
       <c r="J186" s="5">
         <v>165</v>
@@ -8353,15 +8369,15 @@
       <c r="L186" s="5">
         <v>145</v>
       </c>
-      <c r="M186" s="5">
-        <v>13.851000000000001</v>
+      <c r="M186" s="7">
+        <v>13851</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="11"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -9367,8 +9383,8 @@
       <c r="D212" s="5">
         <v>583</v>
       </c>
-      <c r="E212" s="5">
-        <v>2.532</v>
+      <c r="E212" s="7">
+        <v>2532</v>
       </c>
       <c r="F212" s="5">
         <v>467</v>
@@ -9376,8 +9392,8 @@
       <c r="G212" s="5">
         <v>756</v>
       </c>
-      <c r="H212" s="5">
-        <v>1.333</v>
+      <c r="H212" s="7">
+        <v>1333</v>
       </c>
       <c r="I212" s="5">
         <v>486</v>
@@ -9391,15 +9407,15 @@
       <c r="L212" s="5">
         <v>75</v>
       </c>
-      <c r="M212" s="5">
-        <v>7.1639999999999997</v>
+      <c r="M212" s="7">
+        <v>7164</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="11"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -10405,8 +10421,8 @@
       <c r="D238" s="5">
         <v>449</v>
       </c>
-      <c r="E238" s="5">
-        <v>2.0270000000000001</v>
+      <c r="E238" s="7">
+        <v>2027</v>
       </c>
       <c r="F238" s="5">
         <v>406</v>
@@ -10429,15 +10445,15 @@
       <c r="L238" s="5">
         <v>167</v>
       </c>
-      <c r="M238" s="5">
-        <v>5.9459999999999997</v>
+      <c r="M238" s="7">
+        <v>5946</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="11"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10509,8 +10525,8 @@
       <c r="L240" s="4">
         <v>5</v>
       </c>
-      <c r="M240" s="5">
-        <v>1.0309999999999999</v>
+      <c r="M240" s="7">
+        <v>1031</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -11440,23 +11456,23 @@
       <c r="C264" s="5">
         <v>875</v>
       </c>
-      <c r="D264" s="5">
-        <v>1.0669999999999999</v>
-      </c>
-      <c r="E264" s="5">
-        <v>3.8919999999999999</v>
-      </c>
-      <c r="F264" s="5">
-        <v>1.357</v>
-      </c>
-      <c r="G264" s="5">
-        <v>2.3279999999999998</v>
-      </c>
-      <c r="H264" s="5">
-        <v>4.0670000000000002</v>
-      </c>
-      <c r="I264" s="5">
-        <v>1.819</v>
+      <c r="D264" s="7">
+        <v>1067</v>
+      </c>
+      <c r="E264" s="7">
+        <v>3892</v>
+      </c>
+      <c r="F264" s="7">
+        <v>1357</v>
+      </c>
+      <c r="G264" s="7">
+        <v>2328</v>
+      </c>
+      <c r="H264" s="7">
+        <v>4067</v>
+      </c>
+      <c r="I264" s="7">
+        <v>1819</v>
       </c>
       <c r="J264" s="5">
         <v>170</v>
@@ -11467,15 +11483,15 @@
       <c r="L264" s="5">
         <v>192</v>
       </c>
-      <c r="M264" s="5">
-        <v>15.782</v>
+      <c r="M264" s="7">
+        <v>15782</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="11"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -12475,23 +12491,23 @@
         <v>12</v>
       </c>
       <c r="B290" s="6"/>
-      <c r="C290" s="5">
-        <v>1.0669999999999999</v>
+      <c r="C290" s="7">
+        <v>1067</v>
       </c>
       <c r="D290" s="5">
         <v>712</v>
       </c>
-      <c r="E290" s="5">
-        <v>3.7549999999999999</v>
+      <c r="E290" s="7">
+        <v>3755</v>
       </c>
       <c r="F290" s="5">
         <v>763</v>
       </c>
-      <c r="G290" s="5">
-        <v>1.268</v>
-      </c>
-      <c r="H290" s="5">
-        <v>1.5149999999999999</v>
+      <c r="G290" s="7">
+        <v>1268</v>
+      </c>
+      <c r="H290" s="7">
+        <v>1515</v>
       </c>
       <c r="I290" s="5">
         <v>854</v>
@@ -12505,15 +12521,15 @@
       <c r="L290" s="5">
         <v>227</v>
       </c>
-      <c r="M290" s="5">
-        <v>10.231999999999999</v>
+      <c r="M290" s="7">
+        <v>10232</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="s">
+      <c r="A291" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B291" s="8"/>
+      <c r="B291" s="11"/>
       <c r="C291" s="2" t="s">
         <v>2</v>
       </c>
@@ -12567,14 +12583,14 @@
       <c r="F292" s="4">
         <v>1</v>
       </c>
-      <c r="G292" s="4">
-        <v>3.794</v>
-      </c>
-      <c r="H292" s="4">
-        <v>13.683999999999999</v>
-      </c>
-      <c r="I292" s="4">
-        <v>2.6269999999999998</v>
+      <c r="G292" s="8">
+        <v>3794</v>
+      </c>
+      <c r="H292" s="8">
+        <v>13684</v>
+      </c>
+      <c r="I292" s="8">
+        <v>2627</v>
       </c>
       <c r="J292" s="4">
         <v>23</v>
@@ -12585,8 +12601,8 @@
       <c r="L292" s="4">
         <v>172</v>
       </c>
-      <c r="M292" s="5">
-        <v>20.367000000000001</v>
+      <c r="M292" s="7">
+        <v>20367</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
@@ -12606,14 +12622,14 @@
       <c r="F293" s="4">
         <v>1</v>
       </c>
-      <c r="G293" s="4">
-        <v>3.3290000000000002</v>
-      </c>
-      <c r="H293" s="4">
-        <v>13.246</v>
-      </c>
-      <c r="I293" s="4">
-        <v>4.0369999999999999</v>
+      <c r="G293" s="8">
+        <v>3329</v>
+      </c>
+      <c r="H293" s="8">
+        <v>13246</v>
+      </c>
+      <c r="I293" s="8">
+        <v>4037</v>
       </c>
       <c r="J293" s="4">
         <v>48</v>
@@ -12624,8 +12640,8 @@
       <c r="L293" s="4">
         <v>77</v>
       </c>
-      <c r="M293" s="5">
-        <v>20.832000000000001</v>
+      <c r="M293" s="7">
+        <v>20832</v>
       </c>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
@@ -12647,14 +12663,14 @@
       <c r="F294" s="4">
         <v>51</v>
       </c>
-      <c r="G294" s="4">
-        <v>2.3050000000000002</v>
-      </c>
-      <c r="H294" s="4">
-        <v>4.8789999999999996</v>
-      </c>
-      <c r="I294" s="4">
-        <v>5.56</v>
+      <c r="G294" s="8">
+        <v>2305</v>
+      </c>
+      <c r="H294" s="8">
+        <v>4879</v>
+      </c>
+      <c r="I294" s="8">
+        <v>5560</v>
       </c>
       <c r="J294" s="4">
         <v>515</v>
@@ -12665,8 +12681,8 @@
       <c r="L294" s="4">
         <v>66</v>
       </c>
-      <c r="M294" s="5">
-        <v>13.44</v>
+      <c r="M294" s="7">
+        <v>13440</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
@@ -12686,14 +12702,14 @@
       <c r="F295" s="4">
         <v>78</v>
       </c>
-      <c r="G295" s="4">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="H295" s="4">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="I295" s="4">
-        <v>7.7729999999999997</v>
+      <c r="G295" s="8">
+        <v>2785</v>
+      </c>
+      <c r="H295" s="8">
+        <v>3357</v>
+      </c>
+      <c r="I295" s="8">
+        <v>7773</v>
       </c>
       <c r="J295" s="4">
         <v>775</v>
@@ -12704,8 +12720,8 @@
       <c r="L295" s="4">
         <v>58</v>
       </c>
-      <c r="M295" s="5">
-        <v>15.03</v>
+      <c r="M295" s="7">
+        <v>15030</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
@@ -12724,17 +12740,17 @@
       <c r="E296" s="4">
         <v>40</v>
       </c>
-      <c r="F296" s="4">
-        <v>1.359</v>
-      </c>
-      <c r="G296" s="4">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="H296" s="4">
-        <v>4.5679999999999996</v>
-      </c>
-      <c r="I296" s="4">
-        <v>4.9539999999999997</v>
+      <c r="F296" s="8">
+        <v>1359</v>
+      </c>
+      <c r="G296" s="8">
+        <v>1192</v>
+      </c>
+      <c r="H296" s="8">
+        <v>4568</v>
+      </c>
+      <c r="I296" s="8">
+        <v>4954</v>
       </c>
       <c r="J296" s="4">
         <v>859</v>
@@ -12745,8 +12761,8 @@
       <c r="L296" s="4">
         <v>53</v>
       </c>
-      <c r="M296" s="5">
-        <v>13.116</v>
+      <c r="M296" s="7">
+        <v>13116</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
@@ -12763,17 +12779,17 @@
       <c r="E297" s="4">
         <v>177</v>
       </c>
-      <c r="F297" s="4">
-        <v>2.532</v>
-      </c>
-      <c r="G297" s="4">
-        <v>1.238</v>
-      </c>
-      <c r="H297" s="4">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="I297" s="4">
-        <v>5.569</v>
+      <c r="F297" s="8">
+        <v>2532</v>
+      </c>
+      <c r="G297" s="8">
+        <v>1238</v>
+      </c>
+      <c r="H297" s="8">
+        <v>3267</v>
+      </c>
+      <c r="I297" s="8">
+        <v>5569</v>
       </c>
       <c r="J297" s="4">
         <v>903</v>
@@ -12784,8 +12800,8 @@
       <c r="L297" s="4">
         <v>88</v>
       </c>
-      <c r="M297" s="5">
-        <v>14.031000000000001</v>
+      <c r="M297" s="7">
+        <v>14031</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
@@ -12804,17 +12820,17 @@
       <c r="E298" s="4">
         <v>292</v>
       </c>
-      <c r="F298" s="4">
-        <v>1.847</v>
-      </c>
-      <c r="G298" s="4">
-        <v>1.226</v>
-      </c>
-      <c r="H298" s="4">
-        <v>4.9139999999999997</v>
-      </c>
-      <c r="I298" s="4">
-        <v>4.0759999999999996</v>
+      <c r="F298" s="8">
+        <v>1847</v>
+      </c>
+      <c r="G298" s="8">
+        <v>1226</v>
+      </c>
+      <c r="H298" s="8">
+        <v>4914</v>
+      </c>
+      <c r="I298" s="8">
+        <v>4076</v>
       </c>
       <c r="J298" s="4">
         <v>844</v>
@@ -12825,8 +12841,8 @@
       <c r="L298" s="4">
         <v>81</v>
       </c>
-      <c r="M298" s="5">
-        <v>13.486000000000001</v>
+      <c r="M298" s="7">
+        <v>13486</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
@@ -12840,20 +12856,20 @@
       <c r="D299" s="4">
         <v>103</v>
       </c>
-      <c r="E299" s="4">
-        <v>1.9850000000000001</v>
-      </c>
-      <c r="F299" s="4">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="G299" s="4">
-        <v>1.4419999999999999</v>
-      </c>
-      <c r="H299" s="4">
-        <v>3.88</v>
-      </c>
-      <c r="I299" s="4">
-        <v>3.758</v>
+      <c r="E299" s="8">
+        <v>1985</v>
+      </c>
+      <c r="F299" s="8">
+        <v>2078</v>
+      </c>
+      <c r="G299" s="8">
+        <v>1442</v>
+      </c>
+      <c r="H299" s="8">
+        <v>3880</v>
+      </c>
+      <c r="I299" s="8">
+        <v>3758</v>
       </c>
       <c r="J299" s="4">
         <v>649</v>
@@ -12864,8 +12880,8 @@
       <c r="L299" s="4">
         <v>77</v>
       </c>
-      <c r="M299" s="5">
-        <v>14.163</v>
+      <c r="M299" s="7">
+        <v>14163</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
@@ -12884,17 +12900,17 @@
       <c r="E300" s="4">
         <v>580</v>
       </c>
-      <c r="F300" s="4">
-        <v>1.415</v>
-      </c>
-      <c r="G300" s="4">
-        <v>2.0790000000000002</v>
-      </c>
-      <c r="H300" s="4">
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="I300" s="4">
-        <v>3.3610000000000002</v>
+      <c r="F300" s="8">
+        <v>1415</v>
+      </c>
+      <c r="G300" s="8">
+        <v>2079</v>
+      </c>
+      <c r="H300" s="8">
+        <v>5175</v>
+      </c>
+      <c r="I300" s="8">
+        <v>3361</v>
       </c>
       <c r="J300" s="4">
         <v>719</v>
@@ -12905,8 +12921,8 @@
       <c r="L300" s="4">
         <v>85</v>
       </c>
-      <c r="M300" s="5">
-        <v>13.635</v>
+      <c r="M300" s="7">
+        <v>13635</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
@@ -12920,20 +12936,20 @@
       <c r="D301" s="4">
         <v>93</v>
       </c>
-      <c r="E301" s="4">
-        <v>2.9769999999999999</v>
-      </c>
-      <c r="F301" s="4">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="G301" s="4">
-        <v>2.177</v>
-      </c>
-      <c r="H301" s="4">
-        <v>3.6749999999999998</v>
-      </c>
-      <c r="I301" s="4">
-        <v>2.8239999999999998</v>
+      <c r="E301" s="8">
+        <v>2977</v>
+      </c>
+      <c r="F301" s="8">
+        <v>1668</v>
+      </c>
+      <c r="G301" s="8">
+        <v>2177</v>
+      </c>
+      <c r="H301" s="8">
+        <v>3675</v>
+      </c>
+      <c r="I301" s="8">
+        <v>2824</v>
       </c>
       <c r="J301" s="4">
         <v>511</v>
@@ -12944,8 +12960,8 @@
       <c r="L301" s="4">
         <v>72</v>
       </c>
-      <c r="M301" s="5">
-        <v>14.227</v>
+      <c r="M301" s="7">
+        <v>14227</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
@@ -12964,17 +12980,17 @@
       <c r="E302" s="4">
         <v>716</v>
       </c>
-      <c r="F302" s="4">
-        <v>1.542</v>
-      </c>
-      <c r="G302" s="4">
-        <v>1.7470000000000001</v>
-      </c>
-      <c r="H302" s="4">
-        <v>4.3920000000000003</v>
-      </c>
-      <c r="I302" s="4">
-        <v>2.8330000000000002</v>
+      <c r="F302" s="8">
+        <v>1542</v>
+      </c>
+      <c r="G302" s="8">
+        <v>1747</v>
+      </c>
+      <c r="H302" s="8">
+        <v>4392</v>
+      </c>
+      <c r="I302" s="8">
+        <v>2833</v>
       </c>
       <c r="J302" s="4">
         <v>461</v>
@@ -12985,8 +13001,8 @@
       <c r="L302" s="4">
         <v>90</v>
       </c>
-      <c r="M302" s="5">
-        <v>11.956</v>
+      <c r="M302" s="7">
+        <v>11956</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
@@ -13000,20 +13016,20 @@
       <c r="D303" s="4">
         <v>107</v>
       </c>
-      <c r="E303" s="4">
-        <v>3.298</v>
-      </c>
-      <c r="F303" s="4">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="G303" s="4">
-        <v>1.996</v>
-      </c>
-      <c r="H303" s="4">
-        <v>2.9319999999999999</v>
-      </c>
-      <c r="I303" s="4">
-        <v>1.72</v>
+      <c r="E303" s="8">
+        <v>3298</v>
+      </c>
+      <c r="F303" s="8">
+        <v>1662</v>
+      </c>
+      <c r="G303" s="8">
+        <v>1996</v>
+      </c>
+      <c r="H303" s="8">
+        <v>2932</v>
+      </c>
+      <c r="I303" s="8">
+        <v>1720</v>
       </c>
       <c r="J303" s="4">
         <v>232</v>
@@ -13024,8 +13040,8 @@
       <c r="L303" s="4">
         <v>85</v>
       </c>
-      <c r="M303" s="5">
-        <v>12.234999999999999</v>
+      <c r="M303" s="7">
+        <v>12235</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
@@ -13044,17 +13060,17 @@
       <c r="E304" s="4">
         <v>846</v>
       </c>
-      <c r="F304" s="4">
-        <v>1.6819999999999999</v>
-      </c>
-      <c r="G304" s="4">
-        <v>1.925</v>
-      </c>
-      <c r="H304" s="4">
-        <v>3.3759999999999999</v>
-      </c>
-      <c r="I304" s="4">
-        <v>2.1469999999999998</v>
+      <c r="F304" s="8">
+        <v>1682</v>
+      </c>
+      <c r="G304" s="8">
+        <v>1925</v>
+      </c>
+      <c r="H304" s="8">
+        <v>3376</v>
+      </c>
+      <c r="I304" s="8">
+        <v>2147</v>
       </c>
       <c r="J304" s="4">
         <v>315</v>
@@ -13065,8 +13081,8 @@
       <c r="L304" s="4">
         <v>104</v>
       </c>
-      <c r="M304" s="5">
-        <v>10.58</v>
+      <c r="M304" s="7">
+        <v>10580</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
@@ -13080,17 +13096,17 @@
       <c r="D305" s="4">
         <v>263</v>
       </c>
-      <c r="E305" s="4">
-        <v>3.798</v>
-      </c>
-      <c r="F305" s="4">
-        <v>1.546</v>
-      </c>
-      <c r="G305" s="4">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="H305" s="4">
-        <v>2.1949999999999998</v>
+      <c r="E305" s="8">
+        <v>3798</v>
+      </c>
+      <c r="F305" s="8">
+        <v>1546</v>
+      </c>
+      <c r="G305" s="8">
+        <v>1818</v>
+      </c>
+      <c r="H305" s="8">
+        <v>2195</v>
       </c>
       <c r="I305" s="4">
         <v>968</v>
@@ -13104,8 +13120,8 @@
       <c r="L305" s="4">
         <v>123</v>
       </c>
-      <c r="M305" s="5">
-        <v>11.073</v>
+      <c r="M305" s="7">
+        <v>11073</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
@@ -13121,20 +13137,20 @@
       <c r="D306" s="4">
         <v>21</v>
       </c>
-      <c r="E306" s="4">
-        <v>1.379</v>
-      </c>
-      <c r="F306" s="4">
-        <v>1.26</v>
-      </c>
-      <c r="G306" s="4">
-        <v>1.819</v>
-      </c>
-      <c r="H306" s="4">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="I306" s="4">
-        <v>1.601</v>
+      <c r="E306" s="8">
+        <v>1379</v>
+      </c>
+      <c r="F306" s="8">
+        <v>1260</v>
+      </c>
+      <c r="G306" s="8">
+        <v>1819</v>
+      </c>
+      <c r="H306" s="8">
+        <v>2957</v>
+      </c>
+      <c r="I306" s="8">
+        <v>1601</v>
       </c>
       <c r="J306" s="4">
         <v>167</v>
@@ -13145,8 +13161,8 @@
       <c r="L306" s="4">
         <v>129</v>
       </c>
-      <c r="M306" s="5">
-        <v>9.4860000000000007</v>
+      <c r="M306" s="7">
+        <v>9486</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
@@ -13160,17 +13176,17 @@
       <c r="D307" s="4">
         <v>485</v>
       </c>
-      <c r="E307" s="4">
-        <v>4.133</v>
+      <c r="E307" s="8">
+        <v>4133</v>
       </c>
       <c r="F307" s="4">
         <v>990</v>
       </c>
-      <c r="G307" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="H307" s="4">
-        <v>1.7090000000000001</v>
+      <c r="G307" s="8">
+        <v>1280</v>
+      </c>
+      <c r="H307" s="8">
+        <v>1709</v>
       </c>
       <c r="I307" s="4">
         <v>482</v>
@@ -13184,8 +13200,8 @@
       <c r="L307" s="4">
         <v>166</v>
       </c>
-      <c r="M307" s="5">
-        <v>9.7309999999999999</v>
+      <c r="M307" s="7">
+        <v>9731</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
@@ -13201,20 +13217,20 @@
       <c r="D308" s="4">
         <v>45</v>
       </c>
-      <c r="E308" s="4">
-        <v>2.0939999999999999</v>
+      <c r="E308" s="8">
+        <v>2094</v>
       </c>
       <c r="F308" s="4">
         <v>830</v>
       </c>
-      <c r="G308" s="4">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="H308" s="4">
-        <v>2.5659999999999998</v>
-      </c>
-      <c r="I308" s="4">
-        <v>1.137</v>
+      <c r="G308" s="8">
+        <v>1176</v>
+      </c>
+      <c r="H308" s="8">
+        <v>2566</v>
+      </c>
+      <c r="I308" s="8">
+        <v>1137</v>
       </c>
       <c r="J308" s="4">
         <v>76</v>
@@ -13225,8 +13241,8 @@
       <c r="L308" s="4">
         <v>116</v>
       </c>
-      <c r="M308" s="5">
-        <v>8.1180000000000003</v>
+      <c r="M308" s="7">
+        <v>8118</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
@@ -13240,8 +13256,8 @@
       <c r="D309" s="4">
         <v>703</v>
       </c>
-      <c r="E309" s="4">
-        <v>4.2450000000000001</v>
+      <c r="E309" s="8">
+        <v>4245</v>
       </c>
       <c r="F309" s="4">
         <v>450</v>
@@ -13249,8 +13265,8 @@
       <c r="G309" s="4">
         <v>755</v>
       </c>
-      <c r="H309" s="4">
-        <v>1.202</v>
+      <c r="H309" s="8">
+        <v>1202</v>
       </c>
       <c r="I309" s="4">
         <v>310</v>
@@ -13264,8 +13280,8 @@
       <c r="L309" s="4">
         <v>131</v>
       </c>
-      <c r="M309" s="5">
-        <v>8.4819999999999993</v>
+      <c r="M309" s="7">
+        <v>8482</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
@@ -13281,8 +13297,8 @@
       <c r="D310" s="4">
         <v>88</v>
       </c>
-      <c r="E310" s="4">
-        <v>2.5</v>
+      <c r="E310" s="8">
+        <v>2500</v>
       </c>
       <c r="F310" s="4">
         <v>362</v>
@@ -13290,8 +13306,8 @@
       <c r="G310" s="4">
         <v>884</v>
       </c>
-      <c r="H310" s="4">
-        <v>1.47</v>
+      <c r="H310" s="8">
+        <v>1470</v>
       </c>
       <c r="I310" s="4">
         <v>984</v>
@@ -13305,8 +13321,8 @@
       <c r="L310" s="4">
         <v>97</v>
       </c>
-      <c r="M310" s="5">
-        <v>6.5149999999999997</v>
+      <c r="M310" s="7">
+        <v>6515</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
@@ -13320,8 +13336,8 @@
       <c r="D311" s="4">
         <v>850</v>
       </c>
-      <c r="E311" s="4">
-        <v>3.4780000000000002</v>
+      <c r="E311" s="8">
+        <v>3478</v>
       </c>
       <c r="F311" s="4">
         <v>141</v>
@@ -13344,8 +13360,8 @@
       <c r="L311" s="4">
         <v>125</v>
       </c>
-      <c r="M311" s="5">
-        <v>6.758</v>
+      <c r="M311" s="7">
+        <v>6758</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
@@ -13361,8 +13377,8 @@
       <c r="D312" s="4">
         <v>183</v>
       </c>
-      <c r="E312" s="4">
-        <v>2.137</v>
+      <c r="E312" s="8">
+        <v>2137</v>
       </c>
       <c r="F312" s="4">
         <v>128</v>
@@ -13385,8 +13401,8 @@
       <c r="L312" s="4">
         <v>75</v>
       </c>
-      <c r="M312" s="5">
-        <v>4.6529999999999996</v>
+      <c r="M312" s="7">
+        <v>4653</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
@@ -13394,14 +13410,14 @@
       <c r="B313" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C313" s="4">
-        <v>1.4390000000000001</v>
+      <c r="C313" s="8">
+        <v>1439</v>
       </c>
       <c r="D313" s="4">
         <v>934</v>
       </c>
-      <c r="E313" s="4">
-        <v>2.0790000000000002</v>
+      <c r="E313" s="8">
+        <v>2079</v>
       </c>
       <c r="F313" s="4">
         <v>43</v>
@@ -13424,8 +13440,8 @@
       <c r="L313" s="4">
         <v>127</v>
       </c>
-      <c r="M313" s="5">
-        <v>5.2039999999999997</v>
+      <c r="M313" s="7">
+        <v>5204</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
@@ -13441,8 +13457,8 @@
       <c r="D314" s="4">
         <v>573</v>
       </c>
-      <c r="E314" s="4">
-        <v>2.5779999999999998</v>
+      <c r="E314" s="8">
+        <v>2578</v>
       </c>
       <c r="F314" s="4">
         <v>41</v>
@@ -13465,8 +13481,8 @@
       <c r="L314" s="4">
         <v>152</v>
       </c>
-      <c r="M314" s="5">
-        <v>4.9950000000000001</v>
+      <c r="M314" s="7">
+        <v>4995</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
@@ -13474,14 +13490,14 @@
       <c r="B315" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C315" s="4">
-        <v>3.2669999999999999</v>
-      </c>
-      <c r="D315" s="4">
-        <v>1.296</v>
-      </c>
-      <c r="E315" s="4">
-        <v>1.899</v>
+      <c r="C315" s="8">
+        <v>3267</v>
+      </c>
+      <c r="D315" s="8">
+        <v>1296</v>
+      </c>
+      <c r="E315" s="8">
+        <v>1899</v>
       </c>
       <c r="F315" s="4">
         <v>6</v>
@@ -13504,8 +13520,8 @@
       <c r="L315" s="4">
         <v>237</v>
       </c>
-      <c r="M315" s="5">
-        <v>7.0620000000000003</v>
+      <c r="M315" s="7">
+        <v>7062</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -13513,45 +13529,45 @@
         <v>12</v>
       </c>
       <c r="B316" s="6"/>
-      <c r="C316" s="5">
-        <v>7.7389999999999999</v>
-      </c>
-      <c r="D316" s="5">
-        <v>6.1509999999999998</v>
-      </c>
-      <c r="E316" s="5">
-        <v>41.463999999999999</v>
-      </c>
-      <c r="F316" s="5">
-        <v>21.713000000000001</v>
-      </c>
-      <c r="G316" s="5">
-        <v>36.6</v>
-      </c>
-      <c r="H316" s="5">
-        <v>85.849000000000004</v>
-      </c>
-      <c r="I316" s="5">
-        <v>58.027000000000001</v>
-      </c>
-      <c r="J316" s="5">
-        <v>7.3559999999999999</v>
-      </c>
-      <c r="K316" s="5">
-        <v>1.69</v>
-      </c>
-      <c r="L316" s="5">
-        <v>2.5859999999999999</v>
-      </c>
-      <c r="M316" s="5">
-        <v>269.17500000000001</v>
+      <c r="C316" s="7">
+        <v>7739</v>
+      </c>
+      <c r="D316" s="7">
+        <v>6151</v>
+      </c>
+      <c r="E316" s="7">
+        <v>41464</v>
+      </c>
+      <c r="F316" s="7">
+        <v>21713</v>
+      </c>
+      <c r="G316" s="7">
+        <v>36600</v>
+      </c>
+      <c r="H316" s="7">
+        <v>85849</v>
+      </c>
+      <c r="I316" s="7">
+        <v>58027</v>
+      </c>
+      <c r="J316" s="7">
+        <v>7356</v>
+      </c>
+      <c r="K316" s="7">
+        <v>1690</v>
+      </c>
+      <c r="L316" s="7">
+        <v>2586</v>
+      </c>
+      <c r="M316" s="7">
+        <v>269175</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="s">
+      <c r="A317" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B317" s="8"/>
+      <c r="B317" s="11"/>
       <c r="C317" s="2" t="s">
         <v>2</v>
       </c>
@@ -13623,8 +13639,8 @@
       <c r="L318" s="4">
         <v>6</v>
       </c>
-      <c r="M318" s="5">
-        <v>1.2370000000000001</v>
+      <c r="M318" s="7">
+        <v>1237</v>
       </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
@@ -13662,8 +13678,8 @@
       <c r="L319" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M319" s="5">
-        <v>1.2110000000000001</v>
+      <c r="M319" s="7">
+        <v>1211</v>
       </c>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -14542,8 +14558,8 @@
       <c r="L341" s="4">
         <v>18</v>
       </c>
-      <c r="M341" s="5">
-        <v>1.0269999999999999</v>
+      <c r="M341" s="7">
+        <v>1027</v>
       </c>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
@@ -14551,26 +14567,26 @@
         <v>12</v>
       </c>
       <c r="B342" s="6"/>
-      <c r="C342" s="5">
-        <v>1.1080000000000001</v>
-      </c>
-      <c r="D342" s="5">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E342" s="5">
-        <v>5.0780000000000003</v>
-      </c>
-      <c r="F342" s="5">
-        <v>1.62</v>
-      </c>
-      <c r="G342" s="5">
-        <v>2.5289999999999999</v>
-      </c>
-      <c r="H342" s="5">
-        <v>4.8470000000000004</v>
-      </c>
-      <c r="I342" s="5">
-        <v>2.7650000000000001</v>
+      <c r="C342" s="7">
+        <v>1108</v>
+      </c>
+      <c r="D342" s="7">
+        <v>1120</v>
+      </c>
+      <c r="E342" s="7">
+        <v>5078</v>
+      </c>
+      <c r="F342" s="7">
+        <v>1620</v>
+      </c>
+      <c r="G342" s="7">
+        <v>2529</v>
+      </c>
+      <c r="H342" s="7">
+        <v>4847</v>
+      </c>
+      <c r="I342" s="7">
+        <v>2765</v>
       </c>
       <c r="J342" s="5">
         <v>201</v>
@@ -14581,15 +14597,15 @@
       <c r="L342" s="5">
         <v>115</v>
       </c>
-      <c r="M342" s="5">
-        <v>19.399000000000001</v>
+      <c r="M342" s="7">
+        <v>19399</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="s">
+      <c r="A343" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B343" s="8"/>
+      <c r="B343" s="11"/>
       <c r="C343" s="2" t="s">
         <v>2</v>
       </c>
@@ -14646,8 +14662,8 @@
       <c r="G344" s="4">
         <v>402</v>
       </c>
-      <c r="H344" s="4">
-        <v>1.113</v>
+      <c r="H344" s="8">
+        <v>1113</v>
       </c>
       <c r="I344" s="4">
         <v>216</v>
@@ -14661,8 +14677,8 @@
       <c r="L344" s="4">
         <v>26</v>
       </c>
-      <c r="M344" s="5">
-        <v>1.7929999999999999</v>
+      <c r="M344" s="7">
+        <v>1793</v>
       </c>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
@@ -14685,8 +14701,8 @@
       <c r="G345" s="4">
         <v>323</v>
       </c>
-      <c r="H345" s="4">
-        <v>1.1299999999999999</v>
+      <c r="H345" s="8">
+        <v>1130</v>
       </c>
       <c r="I345" s="4">
         <v>327</v>
@@ -14700,8 +14716,8 @@
       <c r="L345" s="4">
         <v>12</v>
       </c>
-      <c r="M345" s="5">
-        <v>1.851</v>
+      <c r="M345" s="7">
+        <v>1851</v>
       </c>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
@@ -14741,8 +14757,8 @@
       <c r="L346" s="4">
         <v>16</v>
       </c>
-      <c r="M346" s="5">
-        <v>1.1259999999999999</v>
+      <c r="M346" s="7">
+        <v>1126</v>
       </c>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
@@ -14780,8 +14796,8 @@
       <c r="L347" s="4">
         <v>17</v>
       </c>
-      <c r="M347" s="5">
-        <v>1.216</v>
+      <c r="M347" s="7">
+        <v>1216</v>
       </c>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
@@ -14821,8 +14837,8 @@
       <c r="L348" s="4">
         <v>18</v>
       </c>
-      <c r="M348" s="5">
-        <v>1.0189999999999999</v>
+      <c r="M348" s="7">
+        <v>1019</v>
       </c>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
@@ -14860,8 +14876,8 @@
       <c r="L349" s="4">
         <v>25</v>
       </c>
-      <c r="M349" s="5">
-        <v>1.131</v>
+      <c r="M349" s="7">
+        <v>1131</v>
       </c>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
@@ -14901,8 +14917,8 @@
       <c r="L350" s="4">
         <v>17</v>
       </c>
-      <c r="M350" s="5">
-        <v>1.2609999999999999</v>
+      <c r="M350" s="7">
+        <v>1261</v>
       </c>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
@@ -14940,8 +14956,8 @@
       <c r="L351" s="4">
         <v>17</v>
       </c>
-      <c r="M351" s="5">
-        <v>1.175</v>
+      <c r="M351" s="7">
+        <v>1175</v>
       </c>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
@@ -14981,8 +14997,8 @@
       <c r="L352" s="4">
         <v>31</v>
       </c>
-      <c r="M352" s="5">
-        <v>1.367</v>
+      <c r="M352" s="7">
+        <v>1367</v>
       </c>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
@@ -15020,8 +15036,8 @@
       <c r="L353" s="4">
         <v>22</v>
       </c>
-      <c r="M353" s="5">
-        <v>1.204</v>
+      <c r="M353" s="7">
+        <v>1204</v>
       </c>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
@@ -15061,8 +15077,8 @@
       <c r="L354" s="4">
         <v>18</v>
       </c>
-      <c r="M354" s="5">
-        <v>1.1140000000000001</v>
+      <c r="M354" s="7">
+        <v>1114</v>
       </c>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
@@ -15100,8 +15116,8 @@
       <c r="L355" s="4">
         <v>26</v>
       </c>
-      <c r="M355" s="5">
-        <v>1.1779999999999999</v>
+      <c r="M355" s="7">
+        <v>1178</v>
       </c>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
@@ -15141,8 +15157,8 @@
       <c r="L356" s="4">
         <v>34</v>
       </c>
-      <c r="M356" s="5">
-        <v>1.1120000000000001</v>
+      <c r="M356" s="7">
+        <v>1112</v>
       </c>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
@@ -15180,8 +15196,8 @@
       <c r="L357" s="4">
         <v>41</v>
       </c>
-      <c r="M357" s="5">
-        <v>1.073</v>
+      <c r="M357" s="7">
+        <v>1073</v>
       </c>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
@@ -15221,8 +15237,8 @@
       <c r="L358" s="4">
         <v>63</v>
       </c>
-      <c r="M358" s="5">
-        <v>1.1259999999999999</v>
+      <c r="M358" s="7">
+        <v>1126</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
@@ -15260,8 +15276,8 @@
       <c r="L359" s="4">
         <v>56</v>
       </c>
-      <c r="M359" s="5">
-        <v>1.139</v>
+      <c r="M359" s="7">
+        <v>1139</v>
       </c>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
@@ -15301,8 +15317,8 @@
       <c r="L360" s="4">
         <v>62</v>
       </c>
-      <c r="M360" s="5">
-        <v>1.006</v>
+      <c r="M360" s="7">
+        <v>1006</v>
       </c>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
@@ -15340,8 +15356,8 @@
       <c r="L361" s="4">
         <v>78</v>
       </c>
-      <c r="M361" s="5">
-        <v>1.127</v>
+      <c r="M361" s="7">
+        <v>1127</v>
       </c>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
@@ -15420,8 +15436,8 @@
       <c r="L363" s="4">
         <v>62</v>
       </c>
-      <c r="M363" s="5">
-        <v>1.0389999999999999</v>
+      <c r="M363" s="7">
+        <v>1039</v>
       </c>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
@@ -15580,8 +15596,8 @@
       <c r="L367" s="4">
         <v>88</v>
       </c>
-      <c r="M367" s="5">
-        <v>1.304</v>
+      <c r="M367" s="7">
+        <v>1304</v>
       </c>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
@@ -15589,26 +15605,26 @@
         <v>12</v>
       </c>
       <c r="B368" s="6"/>
-      <c r="C368" s="5">
-        <v>1.5109999999999999</v>
-      </c>
-      <c r="D368" s="5">
-        <v>1.345</v>
-      </c>
-      <c r="E368" s="5">
-        <v>6.1479999999999997</v>
-      </c>
-      <c r="F368" s="5">
-        <v>2.149</v>
-      </c>
-      <c r="G368" s="5">
-        <v>4.1120000000000001</v>
-      </c>
-      <c r="H368" s="5">
-        <v>7.508</v>
-      </c>
-      <c r="I368" s="5">
-        <v>3.6440000000000001</v>
+      <c r="C368" s="7">
+        <v>1511</v>
+      </c>
+      <c r="D368" s="7">
+        <v>1345</v>
+      </c>
+      <c r="E368" s="7">
+        <v>6148</v>
+      </c>
+      <c r="F368" s="7">
+        <v>2149</v>
+      </c>
+      <c r="G368" s="7">
+        <v>4112</v>
+      </c>
+      <c r="H368" s="7">
+        <v>7508</v>
+      </c>
+      <c r="I368" s="7">
+        <v>3644</v>
       </c>
       <c r="J368" s="5">
         <v>361</v>
@@ -15619,15 +15635,15 @@
       <c r="L368" s="5">
         <v>990</v>
       </c>
-      <c r="M368" s="5">
-        <v>27.8</v>
+      <c r="M368" s="7">
+        <v>27800</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="s">
+      <c r="A369" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B369" s="8"/>
+      <c r="B369" s="11"/>
       <c r="C369" s="2" t="s">
         <v>2</v>
       </c>
@@ -16633,17 +16649,17 @@
       <c r="D394" s="5">
         <v>421</v>
       </c>
-      <c r="E394" s="5">
-        <v>1.752</v>
+      <c r="E394" s="7">
+        <v>1752</v>
       </c>
       <c r="F394" s="5">
         <v>670</v>
       </c>
-      <c r="G394" s="5">
-        <v>1.079</v>
-      </c>
-      <c r="H394" s="5">
-        <v>1.36</v>
+      <c r="G394" s="7">
+        <v>1079</v>
+      </c>
+      <c r="H394" s="7">
+        <v>1360</v>
       </c>
       <c r="I394" s="5">
         <v>553</v>
@@ -16657,15 +16673,15 @@
       <c r="L394" s="5">
         <v>58</v>
       </c>
-      <c r="M394" s="5">
-        <v>6.37</v>
+      <c r="M394" s="7">
+        <v>6370</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="s">
+      <c r="A395" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="8"/>
+      <c r="B395" s="11"/>
       <c r="C395" s="2" t="s">
         <v>2</v>
       </c>
@@ -16737,8 +16753,8 @@
       <c r="L396" s="4">
         <v>22</v>
       </c>
-      <c r="M396" s="5">
-        <v>1.643</v>
+      <c r="M396" s="7">
+        <v>1643</v>
       </c>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
@@ -16776,8 +16792,8 @@
       <c r="L397" s="4">
         <v>3</v>
       </c>
-      <c r="M397" s="5">
-        <v>1.5489999999999999</v>
+      <c r="M397" s="7">
+        <v>1549</v>
       </c>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
@@ -17656,8 +17672,8 @@
       <c r="L419" s="4">
         <v>76</v>
       </c>
-      <c r="M419" s="5">
-        <v>1.048</v>
+      <c r="M419" s="7">
+        <v>1048</v>
       </c>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -17665,26 +17681,26 @@
         <v>12</v>
       </c>
       <c r="B420" s="6"/>
-      <c r="C420" s="5">
-        <v>1.4570000000000001</v>
-      </c>
-      <c r="D420" s="5">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="E420" s="5">
-        <v>6.4020000000000001</v>
-      </c>
-      <c r="F420" s="5">
-        <v>2.319</v>
-      </c>
-      <c r="G420" s="5">
-        <v>3.504</v>
-      </c>
-      <c r="H420" s="5">
-        <v>4.093</v>
-      </c>
-      <c r="I420" s="5">
-        <v>1.583</v>
+      <c r="C420" s="7">
+        <v>1457</v>
+      </c>
+      <c r="D420" s="7">
+        <v>1628</v>
+      </c>
+      <c r="E420" s="7">
+        <v>6402</v>
+      </c>
+      <c r="F420" s="7">
+        <v>2319</v>
+      </c>
+      <c r="G420" s="7">
+        <v>3504</v>
+      </c>
+      <c r="H420" s="7">
+        <v>4093</v>
+      </c>
+      <c r="I420" s="7">
+        <v>1583</v>
       </c>
       <c r="J420" s="5">
         <v>105</v>
@@ -17695,15 +17711,15 @@
       <c r="L420" s="5">
         <v>543</v>
       </c>
-      <c r="M420" s="5">
-        <v>21.648</v>
+      <c r="M420" s="7">
+        <v>21648</v>
       </c>
     </row>
     <row r="421" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="s">
+      <c r="A421" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B421" s="8"/>
+      <c r="B421" s="11"/>
       <c r="C421" s="2" t="s">
         <v>2</v>
       </c>
@@ -18694,8 +18710,8 @@
       <c r="L445" s="4">
         <v>39</v>
       </c>
-      <c r="M445" s="5">
-        <v>1.22</v>
+      <c r="M445" s="7">
+        <v>1220</v>
       </c>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
@@ -18703,26 +18719,26 @@
         <v>12</v>
       </c>
       <c r="B446" s="6"/>
-      <c r="C446" s="5">
-        <v>1.7130000000000001</v>
-      </c>
-      <c r="D446" s="5">
-        <v>1.0860000000000001</v>
-      </c>
-      <c r="E446" s="5">
-        <v>5.4219999999999997</v>
-      </c>
-      <c r="F446" s="5">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="G446" s="5">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="H446" s="5">
-        <v>3.7519999999999998</v>
-      </c>
-      <c r="I446" s="5">
-        <v>1.6459999999999999</v>
+      <c r="C446" s="7">
+        <v>1713</v>
+      </c>
+      <c r="D446" s="7">
+        <v>1086</v>
+      </c>
+      <c r="E446" s="7">
+        <v>5422</v>
+      </c>
+      <c r="F446" s="7">
+        <v>1231</v>
+      </c>
+      <c r="G446" s="7">
+        <v>2014</v>
+      </c>
+      <c r="H446" s="7">
+        <v>3752</v>
+      </c>
+      <c r="I446" s="7">
+        <v>1646</v>
       </c>
       <c r="J446" s="5">
         <v>120</v>
@@ -18733,8 +18749,18 @@
       <c r="L446" s="5">
         <v>227</v>
       </c>
-      <c r="M446" s="5">
-        <v>17.221</v>
+      <c r="M446" s="7">
+        <v>17221</v>
+      </c>
+    </row>
+    <row r="447" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A447" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="448" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A448" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
